--- a/TestCases/TestData_Banker.xlsx
+++ b/TestCases/TestData_Banker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uifrankie github\cicd\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D8C75-06DC-4C82-BA69-076F4B3067CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78975E19-52D0-4124-B04E-1809320303A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData_Banker" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>WordFilePath</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>THE UIBANK OF BUCHAREST</t>
+  </si>
+  <si>
+    <t>THE HIGHER BANK OF UILAND</t>
+  </si>
+  <si>
+    <t>TestCases\Letter_BankNameUppercased.docx</t>
   </si>
 </sst>
 </file>
@@ -878,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,6 +920,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases/TestData_Banker.xlsx
+++ b/TestCases/TestData_Banker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uifrankie github\cicd\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78975E19-52D0-4124-B04E-1809320303A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FBDFB3-83FE-4830-84B9-AEDFA0BFF9B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>WordFilePath</t>
-  </si>
   <si>
     <t>TestCases\Letter_Banker.docx</t>
   </si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>TestCases\Letter_BankNameUppercased.docx</t>
+  </si>
+  <si>
+    <t>FilePath</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,34 +898,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
